--- a/classifier/BD_results_poligrafo.xlsx
+++ b/classifier/BD_results_poligrafo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karan\Desktop\FakeNews-App\classifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77637764-6D34-41F5-B8AE-4A78F2A207F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0DC573-1B30-4EE4-A0AC-CF8D0E1DFE42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="126">
   <si>
     <t>Label</t>
   </si>
@@ -365,6 +365,39 @@
   </si>
   <si>
     <t>dominance_dif</t>
+  </si>
+  <si>
+    <t>informality</t>
+  </si>
+  <si>
+    <t>verbs_ratio</t>
+  </si>
+  <si>
+    <t>adjs_ratio</t>
+  </si>
+  <si>
+    <t>nouns_ratio</t>
+  </si>
+  <si>
+    <t>content_diversity</t>
+  </si>
+  <si>
+    <t>redundancy</t>
+  </si>
+  <si>
+    <t>pausality</t>
+  </si>
+  <si>
+    <t>expressivity</t>
+  </si>
+  <si>
+    <t>non_immediacy</t>
+  </si>
+  <si>
+    <t>n_sents</t>
+  </si>
+  <si>
+    <t>modifiers_ratio</t>
   </si>
 </sst>
 </file>
@@ -740,15 +773,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM31"/>
+  <dimension ref="A1:AX31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AN27" sqref="AN27"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AX1" sqref="AX1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -866,8 +899,41 @@
       <c r="AM1" t="s">
         <v>114</v>
       </c>
+      <c r="AN1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>125</v>
+      </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -985,8 +1051,41 @@
       <c r="AM2">
         <v>2.83</v>
       </c>
+      <c r="AN2">
+        <v>5</v>
+      </c>
+      <c r="AO2">
+        <v>4.2900000000000001E-2</v>
+      </c>
+      <c r="AP2">
+        <v>0.12859999999999999</v>
+      </c>
+      <c r="AQ2">
+        <v>2.1399999999999999E-2</v>
+      </c>
+      <c r="AR2">
+        <v>0.26429999999999998</v>
+      </c>
+      <c r="AS2">
+        <v>0.63490000000000002</v>
+      </c>
+      <c r="AT2">
+        <v>12</v>
+      </c>
+      <c r="AU2">
+        <v>3</v>
+      </c>
+      <c r="AV2">
+        <v>0.14549999999999999</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>5.7099999999999998E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1104,8 +1203,41 @@
       <c r="AM3">
         <v>2.91</v>
       </c>
+      <c r="AN3">
+        <v>4</v>
+      </c>
+      <c r="AO3">
+        <v>0.20830000000000001</v>
+      </c>
+      <c r="AP3">
+        <v>0.125</v>
+      </c>
+      <c r="AQ3">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="AR3">
+        <v>0.21879999999999999</v>
+      </c>
+      <c r="AS3">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="AT3">
+        <v>9.5</v>
+      </c>
+      <c r="AU3">
+        <v>2.75</v>
+      </c>
+      <c r="AV3">
+        <v>0.48480000000000001</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0.16669999999999999</v>
+      </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1223,8 +1355,41 @@
       <c r="AM4">
         <v>3.4</v>
       </c>
+      <c r="AN4">
+        <v>2</v>
+      </c>
+      <c r="AO4">
+        <v>2.2700000000000001E-2</v>
+      </c>
+      <c r="AP4">
+        <v>0.11360000000000001</v>
+      </c>
+      <c r="AQ4">
+        <v>9.0899999999999995E-2</v>
+      </c>
+      <c r="AR4">
+        <v>0.29549999999999998</v>
+      </c>
+      <c r="AS4">
+        <v>0.90910000000000002</v>
+      </c>
+      <c r="AT4">
+        <v>11.5</v>
+      </c>
+      <c r="AU4">
+        <v>2</v>
+      </c>
+      <c r="AV4">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="AW4">
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="AX4">
+        <v>9.0899999999999995E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1342,8 +1507,41 @@
       <c r="AM5">
         <v>4.92</v>
       </c>
+      <c r="AN5">
+        <v>5</v>
+      </c>
+      <c r="AO5">
+        <v>0.1053</v>
+      </c>
+      <c r="AP5">
+        <v>0.21049999999999999</v>
+      </c>
+      <c r="AQ5">
+        <v>3.95E-2</v>
+      </c>
+      <c r="AR5">
+        <v>0.21049999999999999</v>
+      </c>
+      <c r="AS5">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="AT5">
+        <v>5.8</v>
+      </c>
+      <c r="AU5">
+        <v>1</v>
+      </c>
+      <c r="AV5">
+        <v>0.25</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0.1053</v>
+      </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1461,8 +1659,41 @@
       <c r="AM6">
         <v>4.25</v>
       </c>
+      <c r="AN6">
+        <v>7</v>
+      </c>
+      <c r="AO6">
+        <v>1.7899999999999999E-2</v>
+      </c>
+      <c r="AP6">
+        <v>0.15479999999999999</v>
+      </c>
+      <c r="AQ6">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="AR6">
+        <v>0.29170000000000001</v>
+      </c>
+      <c r="AS6">
+        <v>0.86870000000000003</v>
+      </c>
+      <c r="AT6">
+        <v>11.571400000000001</v>
+      </c>
+      <c r="AU6">
+        <v>3.7143000000000002</v>
+      </c>
+      <c r="AV6">
+        <v>0.32</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0.1429</v>
+      </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1580,8 +1811,41 @@
       <c r="AM7">
         <v>3.63</v>
       </c>
+      <c r="AN7">
+        <v>13</v>
+      </c>
+      <c r="AO7">
+        <v>0.19350000000000001</v>
+      </c>
+      <c r="AP7">
+        <v>0.10970000000000001</v>
+      </c>
+      <c r="AQ7">
+        <v>6.4500000000000002E-2</v>
+      </c>
+      <c r="AR7">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="AS7">
+        <v>0.65</v>
+      </c>
+      <c r="AT7">
+        <v>5.2308000000000003</v>
+      </c>
+      <c r="AU7">
+        <v>2.1537999999999999</v>
+      </c>
+      <c r="AV7">
+        <v>0.17649999999999999</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>7.7399999999999997E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1699,8 +1963,41 @@
       <c r="AM8">
         <v>4.6399999999999997</v>
       </c>
+      <c r="AN8">
+        <v>8</v>
+      </c>
+      <c r="AO8">
+        <v>9.7100000000000006E-2</v>
+      </c>
+      <c r="AP8">
+        <v>0.17960000000000001</v>
+      </c>
+      <c r="AQ8">
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="AR8">
+        <v>0.28639999999999999</v>
+      </c>
+      <c r="AS8">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="AT8">
+        <v>12.25</v>
+      </c>
+      <c r="AU8">
+        <v>2.125</v>
+      </c>
+      <c r="AV8">
+        <v>0.26040000000000002</v>
+      </c>
+      <c r="AW8">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="AX8">
+        <v>0.12139999999999999</v>
+      </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1818,8 +2115,41 @@
       <c r="AM9">
         <v>4.12</v>
       </c>
+      <c r="AN9">
+        <v>15</v>
+      </c>
+      <c r="AO9">
+        <v>6.6299999999999998E-2</v>
+      </c>
+      <c r="AP9">
+        <v>0.15359999999999999</v>
+      </c>
+      <c r="AQ9">
+        <v>6.93E-2</v>
+      </c>
+      <c r="AR9">
+        <v>0.34039999999999998</v>
+      </c>
+      <c r="AS9">
+        <v>0.68</v>
+      </c>
+      <c r="AT9">
+        <v>10.066700000000001</v>
+      </c>
+      <c r="AU9">
+        <v>3.6667000000000001</v>
+      </c>
+      <c r="AV9">
+        <v>0.2195</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0.1084</v>
+      </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1937,8 +2267,41 @@
       <c r="AM10">
         <v>2.84</v>
       </c>
+      <c r="AN10">
+        <v>3</v>
+      </c>
+      <c r="AO10">
+        <v>3.5700000000000003E-2</v>
+      </c>
+      <c r="AP10">
+        <v>0.125</v>
+      </c>
+      <c r="AQ10">
+        <v>2.6800000000000001E-2</v>
+      </c>
+      <c r="AR10">
+        <v>0.26790000000000003</v>
+      </c>
+      <c r="AS10">
+        <v>0.92</v>
+      </c>
+      <c r="AT10">
+        <v>16</v>
+      </c>
+      <c r="AU10">
+        <v>2.6667000000000001</v>
+      </c>
+      <c r="AV10">
+        <v>0.13639999999999999</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>5.3600000000000002E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -2056,8 +2419,41 @@
       <c r="AM11">
         <v>4.83</v>
       </c>
+      <c r="AN11">
+        <v>10</v>
+      </c>
+      <c r="AO11">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="AP11">
+        <v>0.2</v>
+      </c>
+      <c r="AQ11">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AR11">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="AS11">
+        <v>0.66339999999999999</v>
+      </c>
+      <c r="AT11">
+        <v>6.7</v>
+      </c>
+      <c r="AU11">
+        <v>2.6</v>
+      </c>
+      <c r="AV11">
+        <v>0.32890000000000003</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0.15620000000000001</v>
+      </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -2175,8 +2571,41 @@
       <c r="AM12">
         <v>4.3</v>
       </c>
+      <c r="AN12">
+        <v>7</v>
+      </c>
+      <c r="AO12">
+        <v>2.76E-2</v>
+      </c>
+      <c r="AP12">
+        <v>0.1429</v>
+      </c>
+      <c r="AQ12">
+        <v>5.9900000000000002E-2</v>
+      </c>
+      <c r="AR12">
+        <v>0.3226</v>
+      </c>
+      <c r="AS12">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="AT12">
+        <v>15.857100000000001</v>
+      </c>
+      <c r="AU12">
+        <v>4.2857000000000003</v>
+      </c>
+      <c r="AV12">
+        <v>0.21779999999999999</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0.1014</v>
+      </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -2294,8 +2723,41 @@
       <c r="AM13">
         <v>4</v>
       </c>
+      <c r="AN13">
+        <v>7</v>
+      </c>
+      <c r="AO13">
+        <v>2.4E-2</v>
+      </c>
+      <c r="AP13">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="AQ13">
+        <v>0.08</v>
+      </c>
+      <c r="AR13">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AS13">
+        <v>0.86670000000000003</v>
+      </c>
+      <c r="AT13">
+        <v>7.8571</v>
+      </c>
+      <c r="AU13">
+        <v>2.7143000000000002</v>
+      </c>
+      <c r="AV13">
+        <v>0.33929999999999999</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0.152</v>
+      </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -2413,8 +2875,41 @@
       <c r="AM14">
         <v>5.26</v>
       </c>
+      <c r="AN14">
+        <v>10</v>
+      </c>
+      <c r="AO14">
+        <v>3.7699999999999997E-2</v>
+      </c>
+      <c r="AP14">
+        <v>0.1195</v>
+      </c>
+      <c r="AQ14">
+        <v>0.1069</v>
+      </c>
+      <c r="AR14">
+        <v>0.32079999999999997</v>
+      </c>
+      <c r="AS14">
+        <v>0.72919999999999996</v>
+      </c>
+      <c r="AT14">
+        <v>6.3</v>
+      </c>
+      <c r="AU14">
+        <v>1.8</v>
+      </c>
+      <c r="AV14">
+        <v>0.37140000000000001</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>0.16350000000000001</v>
+      </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -2532,8 +3027,41 @@
       <c r="AM15">
         <v>4.7300000000000004</v>
       </c>
+      <c r="AN15">
+        <v>17</v>
+      </c>
+      <c r="AO15">
+        <v>9.4200000000000006E-2</v>
+      </c>
+      <c r="AP15">
+        <v>0.1028</v>
+      </c>
+      <c r="AQ15">
+        <v>7.0699999999999999E-2</v>
+      </c>
+      <c r="AR15">
+        <v>0.32550000000000001</v>
+      </c>
+      <c r="AS15">
+        <v>0.78949999999999998</v>
+      </c>
+      <c r="AT15">
+        <v>12.7059</v>
+      </c>
+      <c r="AU15">
+        <v>4.3529</v>
+      </c>
+      <c r="AV15">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>0.10059999999999999</v>
+      </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2651,8 +3179,41 @@
       <c r="AM16">
         <v>4.78</v>
       </c>
+      <c r="AN16">
+        <v>39</v>
+      </c>
+      <c r="AO16">
+        <v>6.3299999999999995E-2</v>
+      </c>
+      <c r="AP16">
+        <v>0.1421</v>
+      </c>
+      <c r="AQ16">
+        <v>9.9900000000000003E-2</v>
+      </c>
+      <c r="AR16">
+        <v>0.30520000000000003</v>
+      </c>
+      <c r="AS16">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="AT16">
+        <v>8.4614999999999991</v>
+      </c>
+      <c r="AU16">
+        <v>2.3077000000000001</v>
+      </c>
+      <c r="AV16">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>0.14910000000000001</v>
+      </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -2770,8 +3331,41 @@
       <c r="AM17">
         <v>4.4000000000000004</v>
       </c>
+      <c r="AN17">
+        <v>20</v>
+      </c>
+      <c r="AO17">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="AP17">
+        <v>0.18529999999999999</v>
+      </c>
+      <c r="AQ17">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="AR17">
+        <v>0.26840000000000003</v>
+      </c>
+      <c r="AS17">
+        <v>0.67030000000000001</v>
+      </c>
+      <c r="AT17">
+        <v>8.15</v>
+      </c>
+      <c r="AU17">
+        <v>1.6</v>
+      </c>
+      <c r="AV17">
+        <v>0.28170000000000001</v>
+      </c>
+      <c r="AW17">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="AX17">
+        <v>0.1278</v>
+      </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2889,8 +3483,41 @@
       <c r="AM18">
         <v>5.31</v>
       </c>
+      <c r="AN18">
+        <v>38</v>
+      </c>
+      <c r="AO18">
+        <v>0.1239</v>
+      </c>
+      <c r="AP18">
+        <v>0.13450000000000001</v>
+      </c>
+      <c r="AQ18">
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="AR18">
+        <v>0.3327</v>
+      </c>
+      <c r="AS18">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="AT18">
+        <v>6.4474</v>
+      </c>
+      <c r="AU18">
+        <v>3.2631999999999999</v>
+      </c>
+      <c r="AV18">
+        <v>0.2273</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>0.1062</v>
+      </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3008,8 +3635,41 @@
       <c r="AM19">
         <v>4.01</v>
       </c>
+      <c r="AN19">
+        <v>9</v>
+      </c>
+      <c r="AO19">
+        <v>0.1376</v>
+      </c>
+      <c r="AP19">
+        <v>0.1429</v>
+      </c>
+      <c r="AQ19">
+        <v>7.4099999999999999E-2</v>
+      </c>
+      <c r="AR19">
+        <v>0.30690000000000001</v>
+      </c>
+      <c r="AS19">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="AT19">
+        <v>9.8888999999999996</v>
+      </c>
+      <c r="AU19">
+        <v>2.3332999999999999</v>
+      </c>
+      <c r="AV19">
+        <v>0.25879999999999997</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>0.1164</v>
+      </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -3127,8 +3787,41 @@
       <c r="AM20">
         <v>4.26</v>
       </c>
+      <c r="AN20">
+        <v>8</v>
+      </c>
+      <c r="AO20">
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="AP20">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="AQ20">
+        <v>4.1700000000000001E-2</v>
+      </c>
+      <c r="AR20">
+        <v>0.32740000000000002</v>
+      </c>
+      <c r="AS20">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="AT20">
+        <v>10.75</v>
+      </c>
+      <c r="AU20">
+        <v>3</v>
+      </c>
+      <c r="AV20">
+        <v>0.15659999999999999</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>7.7399999999999997E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -3246,8 +3939,41 @@
       <c r="AM21">
         <v>5.22</v>
       </c>
+      <c r="AN21">
+        <v>4</v>
+      </c>
+      <c r="AO21">
+        <v>8.8400000000000006E-2</v>
+      </c>
+      <c r="AP21">
+        <v>0.1767</v>
+      </c>
+      <c r="AQ21">
+        <v>7.4399999999999994E-2</v>
+      </c>
+      <c r="AR21">
+        <v>0.2233</v>
+      </c>
+      <c r="AS21">
+        <v>0.67569999999999997</v>
+      </c>
+      <c r="AT21">
+        <v>26.75</v>
+      </c>
+      <c r="AU21">
+        <v>1.75</v>
+      </c>
+      <c r="AV21">
+        <v>0.29070000000000001</v>
+      </c>
+      <c r="AW21">
+        <v>0</v>
+      </c>
+      <c r="AX21">
+        <v>0.1163</v>
+      </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -3365,8 +4091,41 @@
       <c r="AM22">
         <v>4.5999999999999996</v>
       </c>
+      <c r="AN22">
+        <v>8</v>
+      </c>
+      <c r="AO22">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="AP22">
+        <v>0.14749999999999999</v>
+      </c>
+      <c r="AQ22">
+        <v>4.9200000000000001E-2</v>
+      </c>
+      <c r="AR22">
+        <v>0.33879999999999999</v>
+      </c>
+      <c r="AS22">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="AT22">
+        <v>11.375</v>
+      </c>
+      <c r="AU22">
+        <v>3</v>
+      </c>
+      <c r="AV22">
+        <v>0.1011</v>
+      </c>
+      <c r="AW22">
+        <v>0</v>
+      </c>
+      <c r="AX22">
+        <v>4.9200000000000001E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -3484,8 +4243,41 @@
       <c r="AM23">
         <v>2.5</v>
       </c>
+      <c r="AN23">
+        <v>4</v>
+      </c>
+      <c r="AO23">
+        <v>0.20749999999999999</v>
+      </c>
+      <c r="AP23">
+        <v>0.20749999999999999</v>
+      </c>
+      <c r="AQ23">
+        <v>5.6599999999999998E-2</v>
+      </c>
+      <c r="AR23">
+        <v>0.3019</v>
+      </c>
+      <c r="AS23">
+        <v>0.80649999999999999</v>
+      </c>
+      <c r="AT23">
+        <v>5.5</v>
+      </c>
+      <c r="AU23">
+        <v>1</v>
+      </c>
+      <c r="AV23">
+        <v>0.14810000000000001</v>
+      </c>
+      <c r="AW23">
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <v>7.5499999999999998E-2</v>
+      </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -3603,8 +4395,41 @@
       <c r="AM24">
         <v>2.76</v>
       </c>
+      <c r="AN24">
+        <v>2</v>
+      </c>
+      <c r="AO24">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="AP24">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="AQ24">
+        <v>3.1699999999999999E-2</v>
+      </c>
+      <c r="AR24">
+        <v>0.23810000000000001</v>
+      </c>
+      <c r="AS24">
+        <v>0.91669999999999996</v>
+      </c>
+      <c r="AT24">
+        <v>15</v>
+      </c>
+      <c r="AU24">
+        <v>2</v>
+      </c>
+      <c r="AV24">
+        <v>0.2414</v>
+      </c>
+      <c r="AW24">
+        <v>0</v>
+      </c>
+      <c r="AX24">
+        <v>0.1111</v>
+      </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -3722,8 +4547,41 @@
       <c r="AM25">
         <v>5.74</v>
       </c>
+      <c r="AN25">
+        <v>5</v>
+      </c>
+      <c r="AO25">
+        <v>1.89E-2</v>
+      </c>
+      <c r="AP25">
+        <v>0.16039999999999999</v>
+      </c>
+      <c r="AQ25">
+        <v>0.1321</v>
+      </c>
+      <c r="AR25">
+        <v>0.27360000000000001</v>
+      </c>
+      <c r="AS25">
+        <v>0.73019999999999996</v>
+      </c>
+      <c r="AT25">
+        <v>10</v>
+      </c>
+      <c r="AU25">
+        <v>2</v>
+      </c>
+      <c r="AV25">
+        <v>0.36959999999999998</v>
+      </c>
+      <c r="AW25">
+        <v>0</v>
+      </c>
+      <c r="AX25">
+        <v>0.16039999999999999</v>
+      </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -3841,8 +4699,41 @@
       <c r="AM26">
         <v>3.78</v>
       </c>
+      <c r="AN26">
+        <v>4</v>
+      </c>
+      <c r="AO26">
+        <v>0.10290000000000001</v>
+      </c>
+      <c r="AP26">
+        <v>0.2059</v>
+      </c>
+      <c r="AQ26">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="AR26">
+        <v>0.38240000000000002</v>
+      </c>
+      <c r="AS26">
+        <v>0.77270000000000005</v>
+      </c>
+      <c r="AT26">
+        <v>8</v>
+      </c>
+      <c r="AU26">
+        <v>1.75</v>
+      </c>
+      <c r="AV26">
+        <v>0.1</v>
+      </c>
+      <c r="AW26">
+        <v>0</v>
+      </c>
+      <c r="AX26">
+        <v>5.8799999999999998E-2</v>
+      </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -3960,8 +4851,41 @@
       <c r="AM27">
         <v>3.32</v>
       </c>
+      <c r="AN27">
+        <v>4</v>
+      </c>
+      <c r="AO27">
+        <v>6.9800000000000001E-2</v>
+      </c>
+      <c r="AP27">
+        <v>0.1221</v>
+      </c>
+      <c r="AQ27">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="AR27">
+        <v>0.27329999999999999</v>
+      </c>
+      <c r="AS27">
+        <v>0.80430000000000001</v>
+      </c>
+      <c r="AT27">
+        <v>19.75</v>
+      </c>
+      <c r="AU27">
+        <v>8</v>
+      </c>
+      <c r="AV27">
+        <v>0.35289999999999999</v>
+      </c>
+      <c r="AW27">
+        <v>0</v>
+      </c>
+      <c r="AX27">
+        <v>0.13950000000000001</v>
+      </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -4079,8 +5003,41 @@
       <c r="AM28">
         <v>3.62</v>
       </c>
+      <c r="AN28">
+        <v>4</v>
+      </c>
+      <c r="AO28">
+        <v>3.85E-2</v>
+      </c>
+      <c r="AP28">
+        <v>0.21149999999999999</v>
+      </c>
+      <c r="AQ28">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="AR28">
+        <v>0.26919999999999999</v>
+      </c>
+      <c r="AS28">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="AT28">
+        <v>9</v>
+      </c>
+      <c r="AU28">
+        <v>3.25</v>
+      </c>
+      <c r="AV28">
+        <v>0.32</v>
+      </c>
+      <c r="AW28">
+        <v>0</v>
+      </c>
+      <c r="AX28">
+        <v>0.15379999999999999</v>
+      </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -4198,8 +5155,41 @@
       <c r="AM29">
         <v>3.66</v>
       </c>
+      <c r="AN29">
+        <v>10</v>
+      </c>
+      <c r="AO29">
+        <v>4.1700000000000001E-2</v>
+      </c>
+      <c r="AP29">
+        <v>0.19639999999999999</v>
+      </c>
+      <c r="AQ29">
+        <v>5.9499999999999997E-2</v>
+      </c>
+      <c r="AR29">
+        <v>0.26790000000000003</v>
+      </c>
+      <c r="AS29">
+        <v>0.68420000000000003</v>
+      </c>
+      <c r="AT29">
+        <v>7.6</v>
+      </c>
+      <c r="AU29">
+        <v>1.3</v>
+      </c>
+      <c r="AV29">
+        <v>0.21790000000000001</v>
+      </c>
+      <c r="AW29">
+        <v>0</v>
+      </c>
+      <c r="AX29">
+        <v>0.1012</v>
+      </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -4317,8 +5307,41 @@
       <c r="AM30">
         <v>3.92</v>
       </c>
+      <c r="AN30">
+        <v>9</v>
+      </c>
+      <c r="AO30">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AP30">
+        <v>0.1875</v>
+      </c>
+      <c r="AQ30">
+        <v>0.1106</v>
+      </c>
+      <c r="AR30">
+        <v>0.25</v>
+      </c>
+      <c r="AS30">
+        <v>0.69840000000000002</v>
+      </c>
+      <c r="AT30">
+        <v>10</v>
+      </c>
+      <c r="AU30">
+        <v>2.3332999999999999</v>
+      </c>
+      <c r="AV30">
+        <v>0.3846</v>
+      </c>
+      <c r="AW30">
+        <v>0</v>
+      </c>
+      <c r="AX30">
+        <v>0.16830000000000001</v>
+      </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -4435,6 +5458,39 @@
       </c>
       <c r="AM31">
         <v>3.8</v>
+      </c>
+      <c r="AN31">
+        <v>22</v>
+      </c>
+      <c r="AO31">
+        <v>4.1399999999999999E-2</v>
+      </c>
+      <c r="AP31">
+        <v>0.21029999999999999</v>
+      </c>
+      <c r="AQ31">
+        <v>5.5199999999999999E-2</v>
+      </c>
+      <c r="AR31">
+        <v>0.27929999999999999</v>
+      </c>
+      <c r="AS31">
+        <v>0.70389999999999997</v>
+      </c>
+      <c r="AT31">
+        <v>4.6364000000000001</v>
+      </c>
+      <c r="AU31">
+        <v>2.3635999999999999</v>
+      </c>
+      <c r="AV31">
+        <v>0.2606</v>
+      </c>
+      <c r="AW31">
+        <v>1.72E-2</v>
+      </c>
+      <c r="AX31">
+        <v>0.12759999999999999</v>
       </c>
     </row>
   </sheetData>
